--- a/stationList.xlsx
+++ b/stationList.xlsx
@@ -3461,6 +3461,9 @@
       <c r="C73" t="s">
         <v>140</v>
       </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
